--- a/data/hanichim from oz.xlsx
+++ b/data/hanichim from oz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F13E87-2920-4750-AB80-7D737BBD5858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6186F50-56A6-48DB-AB56-A19B250B0EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EE0135EA-A3CD-4A7C-A703-7BC851E2A15A}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>שלומציון המלכה 10</t>
   </si>
   <si>
-    <t>יא תשרי</t>
-  </si>
-  <si>
     <t>1999/01/28</t>
   </si>
   <si>
@@ -402,6 +399,9 @@
   </si>
   <si>
     <t>מרכז</t>
+  </si>
+  <si>
+    <t>תשרי</t>
   </si>
 </sst>
 </file>
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88626C00-A879-449E-8101-7BD32B33290B}">
   <dimension ref="A1:AN12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -852,124 +852,124 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>86</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>87</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>88</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>89</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>91</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>92</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>93</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>94</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>95</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>96</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>97</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>98</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>100</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>101</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>102</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>103</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>104</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>105</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>106</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>107</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>108</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>109</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>110</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>111</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>112</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>113</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
@@ -992,108 +992,108 @@
         <v>313387345</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="X2" s="3">
         <v>544816495</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z2" s="3">
         <v>544816495</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="AD2" s="3">
         <v>544816495</v>
       </c>
       <c r="AE2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL2" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="AM2" s="7">
         <v>544816491</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1111,108 +1111,108 @@
         <v>323398456</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="T3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="X3" s="3">
         <v>544816496</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z3" s="3">
         <v>544816496</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD3" s="3">
         <v>544816496</v>
       </c>
       <c r="AE3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AH3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="AI3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AL3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM3" s="7">
         <v>544816491</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -1230,111 +1230,111 @@
         <v>333409567</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="N4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="X4" s="3">
         <v>544816497</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z4" s="3">
         <v>544816497</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD4" s="3">
         <v>544816497</v>
       </c>
       <c r="AE4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AH4" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="AI4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AL4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM4" s="7">
         <v>544816491</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C5" s="3">
         <v>544816404</v>
@@ -1349,108 +1349,108 @@
         <v>343420678</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="N5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="X5" s="3">
         <v>544816498</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z5" s="3">
         <v>544816498</v>
       </c>
       <c r="AA5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="AD5" s="3">
         <v>544816498</v>
       </c>
       <c r="AE5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AG5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AH5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AH5" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="AI5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AL5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM5" s="7">
         <v>544816491</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
@@ -1468,111 +1468,111 @@
         <v>353431789</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="N6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="X6" s="3">
         <v>544816499</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z6" s="3">
         <v>544816499</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD6" s="3">
         <v>544816499</v>
       </c>
       <c r="AE6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AG6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AH6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AH6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="AI6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AL6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM6" s="7">
         <v>544816491</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3">
         <v>544816406</v>
@@ -1587,111 +1587,111 @@
         <v>363442900</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="N7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="X7" s="3">
         <v>544816500</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z7" s="3">
         <v>544816500</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD7" s="3">
         <v>544816500</v>
       </c>
       <c r="AE7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AH7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AH7" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="AI7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AL7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM7" s="7">
         <v>544816491</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3">
         <v>544816407</v>
@@ -1706,111 +1706,111 @@
         <v>373454011</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="N8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="X8" s="3">
         <v>544816501</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z8" s="3">
         <v>544816501</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD8" s="3">
         <v>544816501</v>
       </c>
       <c r="AE8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AF8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK8" s="5" t="s">
+      <c r="AL8" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="AL8" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="AM8" s="7">
         <v>544816491</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3">
         <v>544816408</v>
@@ -1825,108 +1825,108 @@
         <v>383465122</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="N9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U9" s="2" t="s">
+      <c r="W9" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="X9" s="3">
         <v>544816502</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z9" s="3">
         <v>544816502</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD9" s="3">
         <v>544816502</v>
       </c>
       <c r="AE9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AF9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ9" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK9" s="5" t="s">
+      <c r="AL9" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="AL9" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="AM9" s="7">
         <v>544816491</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
@@ -1935,7 +1935,7 @@
         <v>544816409</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>3</v>
@@ -1944,117 +1944,117 @@
         <v>393476233</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="X10" s="7">
         <v>549247617</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z10" s="7">
         <v>549247617</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD10" s="7">
         <v>549247617</v>
       </c>
       <c r="AE10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AF10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK10" s="5" t="s">
+      <c r="AL10" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="AL10" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="AM10" s="7">
         <v>544816491</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="C11" s="3">
         <v>544816410</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>3</v>
@@ -2063,117 +2063,117 @@
         <v>403487344</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="X11" s="7">
         <v>549247618</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z11" s="7">
         <v>549247618</v>
       </c>
       <c r="AA11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB11" s="2" t="s">
+      <c r="AC11" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="AD11" s="7">
         <v>549247618</v>
       </c>
       <c r="AE11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AF11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK11" s="5" t="s">
+      <c r="AL11" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="AL11" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="AM11" s="7">
         <v>544816491</v>
       </c>
       <c r="AN11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3">
         <v>544816411</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>3</v>
@@ -2182,103 +2182,103 @@
         <v>413498455</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="K12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="X12" s="7">
         <v>549247619</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z12" s="7">
         <v>549247619</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD12" s="7">
         <v>549247619</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AG12" s="2" t="s">
+      <c r="AH12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AH12" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="AI12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK12" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AL12" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM12" s="7">
         <v>544816491</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
